--- a/analysis/data_commit/rob_analysis/rob_case_series.xlsx
+++ b/analysis/data_commit/rob_analysis/rob_case_series.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cumccolumbia-my.sharepoint.com/personal/ac4294_cumc_columbia_edu/Documents/documents/papers/ryr_database/AHA_circulation-r1/risk of bias/rob_analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/dev/marks/2024/cpvt_database_analysis/analysis/data_commit/rob_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{E36EED2A-E533-7C40-BBE3-2F6E7EC5C497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD6584E3-B56B-564C-9650-8891BA688C62}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89231B67-C0CB-E345-8457-76EF65694FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="328">
   <si>
     <t>publication_id</t>
   </si>
@@ -984,6 +984,42 @@
   </si>
   <si>
     <t>https://doi.org/10.1111/anec.12623</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25041964</t>
+  </si>
+  <si>
+    <t>10.1016/j.hrthm.2014.07.020</t>
+  </si>
+  <si>
+    <t>Roux-Buisson, N</t>
+  </si>
+  <si>
+    <t>Prevalence and significance of rare RYR2 variants in arrhythmogenic right ventricular cardiomyopathy/dysplasia: Results of a systematic screening</t>
+  </si>
+  <si>
+    <t>10.1038/ejhg.2015.198</t>
+  </si>
+  <si>
+    <t>Hertz, CL</t>
+  </si>
+  <si>
+    <t>Genetic investigations of sudden unexpected deaths in infancy using next-generation sequencing of 100 genes associated with cardiac diseases</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27000522</t>
+  </si>
+  <si>
+    <t>10.1111/cge.12778</t>
+  </si>
+  <si>
+    <t>Cann, F.</t>
+  </si>
+  <si>
+    <t>Phenotype-driven molecular autopsy for sudden cardiac death</t>
+  </si>
+  <si>
+    <t>rob_publcation_class</t>
   </si>
 </sst>
 </file>
@@ -1044,12 +1080,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1119,15 +1161,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1463,21 +1507,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:R76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I70" sqref="I70"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" style="9" customWidth="1"/>
-    <col min="11" max="17" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="51.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" style="9" customWidth="1"/>
+    <col min="12" max="18" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="112" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="112" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1496,151 +1542,157 @@
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13">
-        <v>5</v>
-      </c>
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="13" t="str">
+      <c r="F2" t="str">
         <f>IF(D2&lt;&gt;"N/A",_xlfn.CONCAT("https://doi.org/",D2),"")</f>
         <v>https://doi.org/10.1371/journal.pone.0131517</v>
       </c>
-      <c r="G2" s="13" t="b">
-        <f t="shared" ref="G2:G57" si="0">IF(H2=1,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="13">
-        <v>5</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="17" t="s">
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2" t="b">
+        <f t="shared" ref="H2:H57" si="0">IF(I2=1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="13" t="s">
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
+      <c r="P2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>8</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="13" t="str">
+      <c r="F3" t="str">
         <f t="shared" ref="F3:F72" si="1">IF(D3&lt;&gt;"N/A",_xlfn.CONCAT("https://doi.org/",D3),"")</f>
         <v/>
       </c>
-      <c r="G3" s="13" t="b">
+      <c r="H3" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H3" s="13">
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="I3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="14" t="s">
+      <c r="J3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="Q3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>24</v>
       </c>
@@ -1656,24 +1708,21 @@
       <c r="F4" t="s">
         <v>32</v>
       </c>
-      <c r="G4" t="b">
+      <c r="H4" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>17</v>
@@ -1685,13 +1734,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R4" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>27</v>
       </c>
@@ -1711,25 +1763,22 @@
         <f t="shared" si="1"/>
         <v>https://doi.org/10.1111/j.1540-8159.2012.03399.x</v>
       </c>
-      <c r="G5" t="b">
+      <c r="H5" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="M5" s="7" t="s">
         <v>17</v>
       </c>
@@ -1740,13 +1789,16 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q5" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>28</v>
       </c>
@@ -1766,25 +1818,22 @@
         <f t="shared" si="1"/>
         <v>https://doi.org/10.1177/1099800409333369</v>
       </c>
-      <c r="G6" t="b">
+      <c r="H6" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="8" t="s">
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="M6" s="7" t="s">
         <v>17</v>
       </c>
@@ -1800,118 +1849,122 @@
       <c r="Q6" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="16">
+      <c r="R6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
         <v>30</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="13" t="str">
+      <c r="F7" t="str">
         <f t="shared" si="1"/>
         <v>https://doi.org/10.1016/j.mayocp.2012.02.017</v>
       </c>
-      <c r="G7" s="13" t="b">
+      <c r="H7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7" s="13">
-        <v>5</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="15" t="s">
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="P7" s="14" t="s">
+      <c r="L7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="16">
+      <c r="R7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
         <v>31</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="13" t="str">
+      <c r="F8" t="str">
         <f t="shared" si="1"/>
         <v>https://doi.org/10.1161/circgenetics.115.001370</v>
       </c>
-      <c r="G8" s="13" t="b">
+      <c r="G8" s="10"/>
+      <c r="H8" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H8" s="13">
-        <v>5</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="15" t="s">
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="L8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="P8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q8" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="M8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>54</v>
       </c>
@@ -1931,25 +1984,22 @@
         <f t="shared" si="1"/>
         <v>https://doi.org/10.1016/j.jelectrocard.2014.11.010</v>
       </c>
-      <c r="G9" t="b">
+      <c r="H9" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="8" t="s">
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="M9" s="7" t="s">
         <v>17</v>
       </c>
@@ -1960,13 +2010,16 @@
         <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q9" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R9" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>73</v>
       </c>
@@ -1986,25 +2039,22 @@
         <f t="shared" si="1"/>
         <v>https://doi.org/10.4065/80.5.596</v>
       </c>
-      <c r="G10" t="b">
+      <c r="H10" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10">
-        <v>5</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="8" t="s">
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="M10" s="7" t="s">
         <v>17</v>
       </c>
@@ -2015,13 +2065,16 @@
         <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q10" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R10" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>74</v>
       </c>
@@ -2041,25 +2094,22 @@
         <f t="shared" si="1"/>
         <v>https://doi.org/10.4065/mcp.2011.0373</v>
       </c>
-      <c r="G11" t="b">
+      <c r="H11" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11">
-        <v>5</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="8" t="s">
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="M11" s="7" t="s">
         <v>17</v>
       </c>
@@ -2075,8 +2125,11 @@
       <c r="Q11" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R11" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>78</v>
       </c>
@@ -2095,24 +2148,21 @@
       <c r="F12" t="s">
         <v>65</v>
       </c>
-      <c r="G12" t="b">
+      <c r="H12" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>4</v>
       </c>
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="7" t="s">
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7" t="s">
         <v>17</v>
@@ -2124,13 +2174,16 @@
         <v>17</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R12" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>79</v>
       </c>
@@ -2149,42 +2202,42 @@
       <c r="F13" t="s">
         <v>70</v>
       </c>
-      <c r="G13" t="b">
+      <c r="H13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13">
-        <v>5</v>
-      </c>
-      <c r="I13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N13" s="7" t="s">
         <v>23</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="Q13" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R13" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>89</v>
       </c>
@@ -2203,42 +2256,42 @@
       <c r="F14" t="s">
         <v>74</v>
       </c>
-      <c r="G14" t="b">
+      <c r="H14" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14">
-        <v>5</v>
-      </c>
-      <c r="I14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="M14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="N14" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q14" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R14" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>92</v>
       </c>
@@ -2258,42 +2311,42 @@
         <f t="shared" si="1"/>
         <v>https://doi.org/10.1136/heartjnl-2013-304613.70</v>
       </c>
-      <c r="G15" t="b">
+      <c r="H15" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>24</v>
+      <c r="J15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>24</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>93</v>
       </c>
@@ -2313,25 +2366,22 @@
         <f t="shared" si="1"/>
         <v>https://doi.org/10.1371/journal.pone.0101059</v>
       </c>
-      <c r="G16" t="b">
+      <c r="H16" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16">
-        <v>5</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="8" t="s">
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="M16" s="7" t="s">
         <v>17</v>
       </c>
@@ -2347,8 +2397,11 @@
       <c r="Q16" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R16" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>94</v>
       </c>
@@ -2368,25 +2421,22 @@
         <f t="shared" si="1"/>
         <v>https://doi.org/10.1016/j.hrthm.2016.10.015</v>
       </c>
-      <c r="G17" t="b">
+      <c r="H17" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17">
-        <v>5</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="8" t="s">
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="M17" s="7" t="s">
         <v>17</v>
       </c>
@@ -2402,8 +2452,11 @@
       <c r="Q17" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R17" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>103</v>
       </c>
@@ -2423,25 +2476,22 @@
         <f t="shared" si="1"/>
         <v>https://doi.org/10.4065/79.11.1380</v>
       </c>
-      <c r="G18" t="b">
+      <c r="H18" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18">
-        <v>5</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="8" t="s">
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="M18" s="7" t="s">
         <v>17</v>
       </c>
@@ -2452,13 +2502,16 @@
         <v>17</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q18" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R18" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>105</v>
       </c>
@@ -2478,24 +2531,21 @@
         <f t="shared" si="1"/>
         <v>https://doi.org/10.1016/j.hrthm.2015.09.027</v>
       </c>
-      <c r="G19" t="b">
+      <c r="H19" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H19">
-        <v>5</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="8" t="s">
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>17</v>
@@ -2507,13 +2557,16 @@
         <v>17</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>120</v>
       </c>
@@ -2532,42 +2585,42 @@
       <c r="F20" t="s">
         <v>97</v>
       </c>
-      <c r="G20" t="b">
+      <c r="H20" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20">
-        <v>5</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="8" t="s">
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="L20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N20" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="R20" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>126</v>
       </c>
@@ -2587,25 +2640,22 @@
         <f t="shared" si="1"/>
         <v>https://doi.org/10.1016/j.hrthm.2007.02.026</v>
       </c>
-      <c r="G21" t="b">
+      <c r="H21" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H21">
-        <v>5</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="8" t="s">
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L21" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="M21" s="7" t="s">
         <v>17</v>
       </c>
@@ -2616,68 +2666,71 @@
         <v>17</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="16">
+        <v>23</v>
+      </c>
+      <c r="R21" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
         <v>130</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F22" s="13" t="str">
+      <c r="F22" t="str">
         <f t="shared" si="1"/>
         <v>https://doi.org/10.1007/s00414-015-1237-8</v>
       </c>
-      <c r="G22" s="13" t="b">
+      <c r="H22" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H22" s="13">
-        <v>5</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="15" t="s">
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="14" t="s">
+      <c r="L22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L22" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M22" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="N22" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="O22" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="P22" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q22" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="M22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>166</v>
       </c>
@@ -2697,22 +2750,19 @@
         <f t="shared" si="1"/>
         <v>https://doi.org/10.1038/jhg.2017.8</v>
       </c>
-      <c r="G23" t="b">
+      <c r="H23" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H23">
-        <v>5</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="8" t="s">
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="L23" s="7" t="s">
         <v>17</v>
       </c>
@@ -2731,8 +2781,11 @@
       <c r="Q23" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R23" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>182</v>
       </c>
@@ -2752,25 +2805,22 @@
         <f t="shared" si="1"/>
         <v>https://doi.org/10.1016/j.amjcard.2019.02.061</v>
       </c>
-      <c r="G24" t="b">
+      <c r="H24" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H24">
-        <v>5</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="8" t="s">
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L24" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="M24" s="7" t="s">
         <v>17</v>
       </c>
@@ -2786,8 +2836,11 @@
       <c r="Q24" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R24" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>183</v>
       </c>
@@ -2807,24 +2860,21 @@
         <f t="shared" si="1"/>
         <v>https://doi.org/10.1093/jnen/nlz136</v>
       </c>
-      <c r="G25" t="b">
+      <c r="H25" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H25">
-        <v>5</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" s="8" t="s">
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>17</v>
@@ -2841,8 +2891,11 @@
       <c r="Q25" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R25" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>188</v>
       </c>
@@ -2862,24 +2915,21 @@
         <f t="shared" si="1"/>
         <v>https://doi.org/10.1097/PCC.0000000000001847</v>
       </c>
-      <c r="G26" t="b">
+      <c r="H26" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H26">
-        <v>5</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="8" t="s">
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M26" s="7" t="s">
         <v>17</v>
@@ -2891,13 +2941,16 @@
         <v>17</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q26" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R26" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>196</v>
       </c>
@@ -2916,97 +2969,97 @@
       <c r="F27" t="s">
         <v>125</v>
       </c>
-      <c r="G27" t="b">
+      <c r="H27" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H27">
-        <v>5</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="8" t="s">
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K27" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="L27" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q27" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="16">
+      <c r="R27" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="10">
         <v>211</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="F28" s="13" t="str">
+      <c r="F28" t="str">
         <f t="shared" si="1"/>
         <v>https://doi.org/10.1016/j.cjca.2014.07.570</v>
       </c>
-      <c r="G28" s="13" t="b">
+      <c r="H28" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="13">
-        <v>5</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K28" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="L28" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M28" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="N28" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="O28" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="P28" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q28" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="R28" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>213</v>
       </c>
@@ -3026,25 +3079,23 @@
         <f t="shared" si="1"/>
         <v>https://doi.org/10.1016/j.forsciint.2014.01.014</v>
       </c>
-      <c r="G29" t="b">
+      <c r="G29" s="10"/>
+      <c r="H29" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H29">
-        <v>5</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="8" t="s">
+      <c r="I29">
+        <v>5</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="M29" s="7" t="s">
         <v>17</v>
       </c>
@@ -3060,8 +3111,11 @@
       <c r="Q29" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R29" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>246</v>
       </c>
@@ -3081,25 +3135,22 @@
         <f t="shared" si="1"/>
         <v>https://doi.org/10.1253/circj.70.1402</v>
       </c>
-      <c r="G30" t="b">
+      <c r="H30" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H30">
-        <v>5</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="8" t="s">
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L30" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="M30" s="7" t="s">
         <v>17</v>
       </c>
@@ -3110,13 +3161,16 @@
         <v>17</v>
       </c>
       <c r="P30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q30" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R30" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
         <v>264</v>
       </c>
@@ -3136,42 +3190,42 @@
         <f t="shared" si="1"/>
         <v>https://doi.org/10.2143/AC.69.1.3011350</v>
       </c>
-      <c r="G31" t="b">
+      <c r="H31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>1</v>
       </c>
-      <c r="I31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31" s="7" t="s">
+      <c r="J31" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="8" t="s">
         <v>23</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N31" s="7" t="s">
         <v>23</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="R31" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>265</v>
       </c>
@@ -3190,42 +3244,42 @@
       <c r="F32" t="s">
         <v>27</v>
       </c>
-      <c r="G32" t="b">
+      <c r="H32" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>1</v>
       </c>
-      <c r="I32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K32" s="7" t="s">
+      <c r="J32" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="8" t="s">
         <v>23</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N32" s="7" t="s">
         <v>23</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P32" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="Q32" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R32" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
         <v>273</v>
       </c>
@@ -3244,96 +3298,96 @@
       <c r="F33" t="s">
         <v>149</v>
       </c>
-      <c r="G33" t="b">
+      <c r="H33" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H33">
-        <v>5</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K33" s="7" t="s">
+      <c r="I33">
+        <v>5</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="8" t="s">
         <v>23</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>23</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q33" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="13">
+      <c r="R33" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>282</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" t="s">
         <v>150</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" t="s">
         <v>151</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" t="s">
         <v>152</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" t="s">
         <v>153</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" t="s">
         <v>154</v>
       </c>
-      <c r="G34" s="13" t="b">
+      <c r="H34" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H34" s="13">
-        <v>5</v>
-      </c>
-      <c r="I34" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="15" t="s">
+      <c r="I34">
+        <v>5</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K34" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="L34" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M34" s="14" t="s">
+      <c r="L34" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N34" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N34" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="O34" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="P34" s="14" t="s">
+      <c r="O34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q34" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R34" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
         <v>283</v>
       </c>
@@ -3353,24 +3407,21 @@
         <f t="shared" si="1"/>
         <v>https://doi.org/10.1016/j.rec.2014.04.023</v>
       </c>
-      <c r="G35" t="b">
+      <c r="H35" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H35">
-        <v>5</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" s="8" t="s">
+      <c r="I35">
+        <v>5</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K35" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="L35" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>17</v>
@@ -3387,8 +3438,11 @@
       <c r="Q35" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R35" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>302</v>
       </c>
@@ -3407,24 +3461,21 @@
       <c r="F36" t="s">
         <v>163</v>
       </c>
-      <c r="G36" t="b">
+      <c r="H36" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H36">
-        <v>5</v>
-      </c>
-      <c r="I36" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K36" t="s">
-        <v>23</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>17</v>
+      <c r="I36">
+        <v>5</v>
+      </c>
+      <c r="J36" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" t="s">
+        <v>23</v>
       </c>
       <c r="M36" s="7" t="s">
         <v>17</v>
@@ -3436,13 +3487,16 @@
         <v>17</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="R36" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
         <v>346</v>
       </c>
@@ -3462,24 +3516,21 @@
         <f t="shared" si="1"/>
         <v>https://doi.org/10.2353/jmoldx.2006.050081</v>
       </c>
-      <c r="G37" t="b">
+      <c r="H37" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H37">
-        <v>5</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" s="8" t="s">
+      <c r="I37">
+        <v>5</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K37" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="L37" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M37" s="7" t="s">
         <v>17</v>
@@ -3491,13 +3542,16 @@
         <v>17</v>
       </c>
       <c r="P37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q37" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R37" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
         <v>351</v>
       </c>
@@ -3517,24 +3571,24 @@
         <f t="shared" si="1"/>
         <v>https://doi.org/10.1007/s00414-014-1105-y</v>
       </c>
-      <c r="G38" t="b">
+      <c r="G38" s="10">
+        <v>12</v>
+      </c>
+      <c r="H38" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H38">
-        <v>5</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J38" s="8" t="s">
+      <c r="I38">
+        <v>5</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K38" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="L38" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M38" s="7" t="s">
         <v>17</v>
@@ -3551,62 +3605,65 @@
       <c r="Q38" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="13">
+      <c r="R38" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>363</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" t="s">
         <v>172</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" t="s">
         <v>173</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" t="s">
         <v>174</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" t="s">
         <v>175</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" t="s">
         <v>176</v>
       </c>
-      <c r="G39" s="13" t="b">
+      <c r="H39" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H39" s="13">
-        <v>5</v>
-      </c>
-      <c r="I39" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="17" t="s">
+      <c r="I39">
+        <v>5</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K39" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L39" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M39" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="N39" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="O39" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="P39" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q39" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="L39" t="s">
+        <v>17</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R39" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>374</v>
       </c>
@@ -3625,31 +3682,31 @@
       <c r="F40" t="s">
         <v>180</v>
       </c>
-      <c r="G40" t="b">
+      <c r="G40">
+        <v>12</v>
+      </c>
+      <c r="H40" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40">
-        <v>5</v>
-      </c>
-      <c r="I40" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40" s="8" t="s">
+      <c r="I40">
+        <v>5</v>
+      </c>
+      <c r="J40" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K40" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="L40" s="7" t="s">
         <v>17</v>
       </c>
       <c r="M40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N40" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N40" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="O40" s="7" t="s">
         <v>17</v>
       </c>
@@ -3659,8 +3716,11 @@
       <c r="Q40" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R40" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>381</v>
       </c>
@@ -3679,42 +3739,42 @@
       <c r="F41" t="s">
         <v>185</v>
       </c>
-      <c r="G41" t="b">
+      <c r="H41" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>1</v>
       </c>
-      <c r="I41" t="s">
-        <v>17</v>
-      </c>
-      <c r="J41" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K41" t="s">
+      <c r="J41" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L41" t="s">
         <v>24</v>
       </c>
-      <c r="L41" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="M41" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N41" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="N41" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="O41" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R41" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
         <v>390</v>
       </c>
@@ -3734,24 +3794,21 @@
         <f t="shared" si="1"/>
         <v>https://doi.org/10.12809/hkmj154653</v>
       </c>
-      <c r="G42" t="b">
+      <c r="H42" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42">
-        <v>5</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J42" s="8" t="s">
+      <c r="I42">
+        <v>5</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K42" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="L42" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M42" s="7" t="s">
         <v>17</v>
@@ -3763,13 +3820,16 @@
         <v>17</v>
       </c>
       <c r="P42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q42" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R42" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
         <v>420</v>
       </c>
@@ -3789,24 +3849,21 @@
         <f t="shared" si="1"/>
         <v>https://doi.org/10.1002/mgg3.1151</v>
       </c>
-      <c r="G43" t="b">
+      <c r="H43" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H43">
-        <v>5</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J43" s="8" t="s">
+      <c r="I43">
+        <v>5</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K43" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="L43" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M43" s="7" t="s">
         <v>17</v>
@@ -3818,13 +3875,16 @@
         <v>17</v>
       </c>
       <c r="P43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q43" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R43" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="10">
         <v>448</v>
       </c>
@@ -3844,25 +3904,22 @@
         <f t="shared" si="1"/>
         <v>https://doi.org/10.1253/circj.CJ-19-0720</v>
       </c>
-      <c r="G44" t="b">
+      <c r="H44" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H44">
-        <v>5</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J44" s="8" t="s">
+      <c r="I44">
+        <v>5</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L44" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="M44" s="7" t="s">
         <v>17</v>
       </c>
@@ -3873,13 +3930,16 @@
         <v>17</v>
       </c>
       <c r="P44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q44" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R44" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="10">
         <v>456</v>
       </c>
@@ -3899,42 +3959,45 @@
         <f t="shared" si="1"/>
         <v>https://doi.org/10.1136/heartjnl-2012-302920a.65</v>
       </c>
-      <c r="G45" t="b">
+      <c r="G45" s="10">
+        <v>12</v>
+      </c>
+      <c r="H45" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>1</v>
       </c>
-      <c r="I45" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J45" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>24</v>
+      <c r="J45" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>24</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N45" s="7" t="s">
         <v>23</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="R45" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="10">
         <v>485</v>
       </c>
@@ -3954,22 +4017,22 @@
         <f t="shared" si="1"/>
         <v>https://doi.org/10.1007/s00414-018-1775-y</v>
       </c>
-      <c r="G46" t="b">
+      <c r="G46" s="10">
+        <v>12</v>
+      </c>
+      <c r="H46" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H46">
-        <v>5</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J46" s="8" t="s">
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K46" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="L46" s="7" t="s">
         <v>17</v>
       </c>
@@ -3988,62 +4051,65 @@
       <c r="Q46" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="16">
+      <c r="R46" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="10">
         <v>501</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" t="s">
         <v>204</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" t="s">
         <v>205</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" t="s">
         <v>206</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="E47" t="s">
         <v>207</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F47" t="s">
         <v>208</v>
       </c>
-      <c r="G47" s="13" t="b">
+      <c r="H47" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H47" s="13">
-        <v>5</v>
-      </c>
-      <c r="I47" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J47" s="15" t="s">
+      <c r="I47">
+        <v>5</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K47" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="L47" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M47" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N47" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="O47" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="P47" s="14" t="s">
+      <c r="L47" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N47" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q47" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R47" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="10">
         <v>504</v>
       </c>
@@ -4062,31 +4128,28 @@
       <c r="F48" t="s">
         <v>213</v>
       </c>
-      <c r="G48" t="b">
+      <c r="H48" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H48">
-        <v>5</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J48" s="8" t="s">
+      <c r="I48">
+        <v>5</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K48" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="L48" s="7" t="s">
         <v>17</v>
       </c>
       <c r="M48" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N48" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N48" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="O48" s="7" t="s">
         <v>17</v>
       </c>
@@ -4096,8 +4159,11 @@
       <c r="Q48" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R48" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>515</v>
       </c>
@@ -4116,42 +4182,42 @@
       <c r="F49" t="s">
         <v>218</v>
       </c>
-      <c r="G49" t="b">
+      <c r="H49" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>3</v>
       </c>
-      <c r="I49" t="s">
-        <v>17</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K49" s="7" t="s">
+      <c r="J49" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N49" s="7" t="s">
         <v>23</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P49" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="Q49" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="R49" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="10">
         <v>540</v>
       </c>
@@ -4171,42 +4237,42 @@
         <f t="shared" si="1"/>
         <v>https://doi.org/10.1016/j.jelectrocard.2017.10.002</v>
       </c>
-      <c r="G50" t="b">
+      <c r="H50" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H50">
-        <v>5</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J50" s="8" t="s">
+      <c r="I50">
+        <v>5</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K50" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="L50" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M50" s="7" t="s">
         <v>17</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="R50" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>550</v>
       </c>
@@ -4225,42 +4291,42 @@
       <c r="F51" t="s">
         <v>226</v>
       </c>
-      <c r="G51" t="b">
+      <c r="H51" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H51">
-        <v>5</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J51" s="8" t="s">
+      <c r="I51">
+        <v>5</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K51" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="L51" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N51" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P51" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q51" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q51" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R51" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="10">
         <v>583</v>
       </c>
@@ -4280,42 +4346,42 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G52" t="b">
+      <c r="H52" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>1</v>
       </c>
-      <c r="I52" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J52" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>17</v>
+      <c r="J52" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="L52" s="7" t="s">
         <v>17</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="O52" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="R52" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>627</v>
       </c>
@@ -4334,24 +4400,21 @@
       <c r="F53" t="s">
         <v>234</v>
       </c>
-      <c r="G53" t="b">
+      <c r="H53" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H53">
-        <v>5</v>
-      </c>
-      <c r="I53" t="s">
-        <v>17</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K53" s="7" t="s">
+      <c r="I53">
+        <v>5</v>
+      </c>
+      <c r="J53" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M53" s="7" t="s">
         <v>17</v>
@@ -4363,68 +4426,74 @@
         <v>17</v>
       </c>
       <c r="P53" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q53" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q53" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="16">
+      <c r="R53" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="10">
         <v>633</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="D54" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="F54" s="13" t="str">
+      <c r="F54" t="str">
         <f t="shared" si="1"/>
         <v>https://doi.org/10.1016/j.forsciint.2016.12.035</v>
       </c>
-      <c r="G54" s="13" t="b">
+      <c r="G54" s="10">
+        <v>12</v>
+      </c>
+      <c r="H54" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H54" s="13">
-        <v>5</v>
-      </c>
-      <c r="I54" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J54" s="15" t="s">
+      <c r="I54">
+        <v>5</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K54" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="L54" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M54" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="N54" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="O54" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="P54" s="14" t="s">
+      <c r="L54" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N54" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O54" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q54" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q54" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R54" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>704</v>
       </c>
@@ -4443,42 +4512,42 @@
       <c r="F55" t="s">
         <v>243</v>
       </c>
-      <c r="G55" t="b">
+      <c r="H55" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>3</v>
       </c>
-      <c r="I55" t="s">
-        <v>17</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K55" s="7" t="s">
+      <c r="J55" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N55" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="O55" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P55" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q55" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q55" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R55" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="10">
         <v>717</v>
       </c>
@@ -4498,42 +4567,42 @@
         <f t="shared" si="1"/>
         <v>https://doi.org/10.1056/NEJMc1905537</v>
       </c>
-      <c r="G56" t="b">
+      <c r="H56" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>3</v>
       </c>
-      <c r="I56" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J56" s="8" t="s">
+      <c r="J56" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K56" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K56" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="L56" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N56" s="7" t="s">
         <v>23</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="P56" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q56" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R56" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>754</v>
       </c>
@@ -4549,24 +4618,21 @@
       <c r="F57" t="s">
         <v>250</v>
       </c>
-      <c r="G57" t="b">
+      <c r="H57" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H57">
-        <v>5</v>
-      </c>
-      <c r="I57" t="s">
-        <v>17</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K57" s="7" t="s">
+      <c r="I57">
+        <v>5</v>
+      </c>
+      <c r="J57" t="s">
+        <v>17</v>
+      </c>
+      <c r="K57" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M57" s="7" t="s">
         <v>17</v>
@@ -4578,13 +4644,16 @@
         <v>17</v>
       </c>
       <c r="P57" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q57" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Q57" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R57" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="10">
         <v>761</v>
       </c>
@@ -4604,42 +4673,42 @@
         <f t="shared" si="1"/>
         <v>https://doi.org/10.1016/j.jelectrocard.2020.03.001</v>
       </c>
-      <c r="G58" t="b">
-        <f t="shared" ref="G58:G73" si="2">IF(H58=1,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>5</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J58" s="8" t="s">
+      <c r="H58" t="b">
+        <f t="shared" ref="H58:H76" si="2">IF(I58=1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>5</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K58" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="L58" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M58" s="7" t="s">
         <v>17</v>
       </c>
       <c r="N58" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="P58" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q58" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q58" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R58" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="10">
         <v>782</v>
       </c>
@@ -4658,42 +4727,45 @@
       <c r="F59" t="s">
         <v>259</v>
       </c>
-      <c r="G59" t="b">
+      <c r="G59">
+        <v>12</v>
+      </c>
+      <c r="H59" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H59">
-        <v>5</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J59" s="8" t="s">
+      <c r="I59">
+        <v>5</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K59" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K59" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="L59" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M59" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N59" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N59" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="O59" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P59" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q59" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q59" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R59" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="10">
         <v>783</v>
       </c>
@@ -4713,24 +4785,21 @@
         <f t="shared" si="1"/>
         <v>https://doi.org/10.1016/j.forsciint.2016.12.001</v>
       </c>
-      <c r="G60" t="b">
+      <c r="H60" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H60">
-        <v>5</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J60" s="8" t="s">
+      <c r="I60">
+        <v>5</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K60" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K60" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="L60" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M60" s="7" t="s">
         <v>17</v>
@@ -4747,8 +4816,11 @@
       <c r="Q60" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R60" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="10">
         <v>787</v>
       </c>
@@ -4768,25 +4840,25 @@
         <f t="shared" si="1"/>
         <v>https://doi.org/10.1016/j.jacc.2017.01.043</v>
       </c>
-      <c r="G61" t="b">
+      <c r="G61" s="10">
+        <v>12</v>
+      </c>
+      <c r="H61" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H61">
-        <v>5</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J61" s="8" t="s">
+      <c r="I61">
+        <v>5</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K61" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K61" s="7" t="s">
+      <c r="L61" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L61" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="M61" s="7" t="s">
         <v>17</v>
       </c>
@@ -4802,8 +4874,11 @@
       <c r="Q61" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R61" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="10">
         <v>794</v>
       </c>
@@ -4823,22 +4898,22 @@
         <f t="shared" si="1"/>
         <v>https://doi.org/10.1007/s00246-014-1082-4</v>
       </c>
-      <c r="G62" t="b">
+      <c r="G62" s="10">
+        <v>12</v>
+      </c>
+      <c r="H62" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H62">
-        <v>5</v>
-      </c>
-      <c r="I62" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J62" s="8" t="s">
+      <c r="I62">
+        <v>5</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K62" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K62" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="L62" s="7" t="s">
         <v>17</v>
       </c>
@@ -4852,13 +4927,16 @@
         <v>17</v>
       </c>
       <c r="P62" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q62" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q62" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R62" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="10">
         <v>841</v>
       </c>
@@ -4878,24 +4956,21 @@
         <f t="shared" si="1"/>
         <v>https://doi.org/10.12809/hkmj176870</v>
       </c>
-      <c r="G63" t="b">
+      <c r="H63" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H63">
-        <v>5</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J63" s="8" t="s">
+      <c r="I63">
+        <v>5</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K63" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K63" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="L63" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M63" s="7" t="s">
         <v>17</v>
@@ -4912,8 +4987,11 @@
       <c r="Q63" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R63" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1037</v>
       </c>
@@ -4932,42 +5010,43 @@
       <c r="F64" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G64" t="b">
+      <c r="G64" s="10"/>
+      <c r="H64" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>1</v>
       </c>
-      <c r="I64" t="s">
-        <v>17</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K64" s="7" t="s">
+      <c r="J64" t="s">
+        <v>17</v>
+      </c>
+      <c r="K64" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M64" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N64" s="7" t="s">
         <v>23</v>
       </c>
       <c r="O64" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P64" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P64" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="Q64" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R64" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="10">
         <v>1063</v>
       </c>
@@ -4987,22 +5066,19 @@
         <f t="shared" si="1"/>
         <v>https://doi.org/10.1111/pedi.12746</v>
       </c>
-      <c r="G65" t="b">
+      <c r="H65" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>1</v>
       </c>
-      <c r="I65" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J65" s="8" t="s">
+      <c r="J65" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K65" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K65" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="L65" s="7" t="s">
         <v>23</v>
       </c>
@@ -5013,16 +5089,19 @@
         <v>23</v>
       </c>
       <c r="O65" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P65" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P65" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="Q65" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R65" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="10">
         <v>1154</v>
       </c>
@@ -5042,42 +5121,45 @@
         <f t="shared" si="1"/>
         <v>https://doi.org/10.1093/eurheartj/ehx493.P5860</v>
       </c>
-      <c r="G66" t="b">
+      <c r="G66" s="10">
+        <v>12</v>
+      </c>
+      <c r="H66" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>1</v>
       </c>
-      <c r="I66" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J66" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K66" s="7" t="s">
+      <c r="J66" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K66" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L66" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L66" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="M66" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N66" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O66" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P66" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q66" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q66" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R66" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1168</v>
       </c>
@@ -5096,42 +5178,42 @@
       <c r="F67" t="s">
         <v>290</v>
       </c>
-      <c r="G67" t="b">
+      <c r="H67" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H67">
-        <v>5</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K67" s="7" t="s">
+      <c r="I67">
+        <v>5</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K67" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M67" s="7" t="s">
         <v>17</v>
       </c>
       <c r="N67" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="P67" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q67" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q67" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R67" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1200</v>
       </c>
@@ -5150,24 +5232,21 @@
       <c r="F68" t="s">
         <v>295</v>
       </c>
-      <c r="G68" t="b">
+      <c r="H68" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H68">
-        <v>5</v>
-      </c>
-      <c r="I68" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K68" s="7" t="s">
+      <c r="I68">
+        <v>5</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K68" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M68" s="7" t="s">
         <v>17</v>
@@ -5179,13 +5258,16 @@
         <v>17</v>
       </c>
       <c r="P68" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q68" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q68" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R68" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1231</v>
       </c>
@@ -5204,24 +5286,21 @@
       <c r="F69" t="s">
         <v>299</v>
       </c>
-      <c r="G69" t="b">
+      <c r="H69" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>3</v>
       </c>
-      <c r="I69" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J69" s="1" t="s">
+      <c r="J69" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K69" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="L69" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M69" s="7" t="s">
         <v>17</v>
@@ -5233,13 +5312,16 @@
         <v>17</v>
       </c>
       <c r="P69" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q69" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q69" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R69" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="10">
         <v>1244</v>
       </c>
@@ -5259,24 +5341,21 @@
         <f t="shared" si="1"/>
         <v>https://doi.org/10.1016/j.humpath.2005.04.019</v>
       </c>
-      <c r="G70" t="b">
+      <c r="H70" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H70">
-        <v>5</v>
-      </c>
-      <c r="I70" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J70" s="8" t="s">
+      <c r="I70">
+        <v>5</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K70" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K70" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="L70" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M70" s="7" t="s">
         <v>17</v>
@@ -5288,13 +5367,16 @@
         <v>17</v>
       </c>
       <c r="P70" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q70" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q70" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R70" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="10">
         <v>1261</v>
       </c>
@@ -5314,42 +5396,42 @@
         <f t="shared" si="1"/>
         <v>https://doi.org/10.1093/eurheartj/ehx502.1218</v>
       </c>
-      <c r="G71" t="b">
+      <c r="H71" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>1</v>
       </c>
-      <c r="I71" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J71" s="8" t="s">
+      <c r="J71" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K71" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K71" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="L71" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M71" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N71" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O71" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q71" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R71" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="10">
         <v>1342</v>
       </c>
@@ -5369,42 +5451,45 @@
         <f t="shared" si="1"/>
         <v>https://doi.org/10.1093/europace/euw362</v>
       </c>
-      <c r="G72" t="b">
+      <c r="G72" s="10">
+        <v>12</v>
+      </c>
+      <c r="H72" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H72">
-        <v>5</v>
-      </c>
-      <c r="I72" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J72" s="8" t="s">
+      <c r="I72">
+        <v>5</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K72" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K72" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="L72" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M72" s="7" t="s">
         <v>17</v>
       </c>
       <c r="N72" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="P72" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q72" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q72" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R72" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1345</v>
       </c>
@@ -5423,24 +5508,21 @@
       <c r="F73" t="s">
         <v>315</v>
       </c>
-      <c r="G73" t="b">
+      <c r="H73" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H73">
-        <v>5</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K73" t="s">
+      <c r="I73">
+        <v>5</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K73" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L73" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M73" t="s">
         <v>17</v>
@@ -5455,6 +5537,180 @@
         <v>17</v>
       </c>
       <c r="Q73" t="s">
+        <v>17</v>
+      </c>
+      <c r="R73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="14">
+        <v>16</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="F74" s="15" t="str">
+        <f>IF(D74&lt;&gt;"N/A",_xlfn.CONCAT("https://doi.org/",D74),"")</f>
+        <v>https://doi.org/10.1016/j.hrthm.2014.07.020</v>
+      </c>
+      <c r="G74" s="14">
+        <v>12</v>
+      </c>
+      <c r="H74" s="15" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I74" s="15">
+        <v>5</v>
+      </c>
+      <c r="J74" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K74" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L74" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M74" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="N74" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="O74" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="P74" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q74" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="R74" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="14">
+        <v>1055</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F75" s="15" t="str">
+        <f>IF(D75&lt;&gt;"N/A",_xlfn.CONCAT("https://doi.org/",D75),"")</f>
+        <v>https://doi.org/10.1038/ejhg.2015.198</v>
+      </c>
+      <c r="G75" s="14">
+        <v>12</v>
+      </c>
+      <c r="H75" s="15" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I75" s="15">
+        <v>5</v>
+      </c>
+      <c r="J75" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K75" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L75" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M75" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="N75" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="O75" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="P75" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q75" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="R75" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="10">
+        <v>1058</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="F76" t="str">
+        <f>IF(D76&lt;&gt;"N/A",_xlfn.CONCAT("https://doi.org/",D76),"")</f>
+        <v>https://doi.org/10.1111/cge.12778</v>
+      </c>
+      <c r="H76" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>5</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K76" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L76" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M76" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N76" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O76" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P76" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q76" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R76" s="7" t="s">
         <v>17</v>
       </c>
     </row>
